--- a/TestData/inter_test_data.xlsx
+++ b/TestData/inter_test_data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="96" windowWidth="14796" windowHeight="8016" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="API" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="注册接口用例" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="登录接口用例" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="查询博文用例" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="API" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="注册接口用例" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="登录接口用例" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="查询博文用例" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -92,6 +92,74 @@
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -415,7 +483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -594,33 +662,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId27"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -871,7 +915,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'token': 'dc33d1130ae284a2159c20a5851f0722', 'code': '00', 'userid': 1202, 'login_time': '2021-03-28 17:24:42'}</t>
+          <t>{'token': '0aae5aa467c8186a7f9812a191c105cb', 'code': '00', 'userid': 229, 'login_time': '2021-08-25 14:04:36'}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
